--- a/output/tables/CornBeltSummary.xlsx
+++ b/output/tables/CornBeltSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/wu_4912_buckeyemail_osu_edu/Documents/carbon/github/AgCarbon/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="780" documentId="8_{71191DE4-8D3F-5B4B-8C67-834BA41BF1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CBC67CC-8D88-4041-B678-00F89FABE325}"/>
+  <xr:revisionPtr revIDLastSave="781" documentId="8_{71191DE4-8D3F-5B4B-8C67-834BA41BF1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92BC1EFD-2C52-2148-BF46-32C7AED418D4}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="1200" windowWidth="27400" windowHeight="17520" activeTab="2" xr2:uid="{477F44E2-C865-C749-8148-63A2BD4F6E4E}"/>
+    <workbookView xWindow="14240" yWindow="1660" windowWidth="27400" windowHeight="17520" activeTab="1" xr2:uid="{477F44E2-C865-C749-8148-63A2BD4F6E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="14years" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="62">
   <si>
     <t>OH</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>policy</t>
+  </si>
+  <si>
+    <t>coef (Mg/ha)</t>
   </si>
 </sst>
 </file>
@@ -3370,7 +3373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D3618E-6887-D943-BFF1-3BE324C3261B}">
   <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="60" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="88" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -3925,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5496ECEF-3F69-D749-BBAC-9EE78D05B7DC}">
   <dimension ref="B2:AG27"/>
   <sheetViews>
-    <sheetView topLeftCell="Q7" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16:X16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4183,7 +4186,7 @@
         <v>0.39102528937407427</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="V11" s="25">
         <v>0.215</v>
@@ -5127,7 +5130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B005DFE-E30F-C14C-8A87-07A16462270F}">
   <dimension ref="B7:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:F30"/>
     </sheetView>
   </sheetViews>
